--- a/Benchmark-Models/Beer_MolBioSystems2014/Model/model1_data10.xlsx
+++ b/Benchmark-Models/Beer_MolBioSystems2014/Model/model1_data10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>dBac/dt</t>
   </si>
